--- a/modules/test/data/test.xlsx
+++ b/modules/test/data/test.xlsx
@@ -354,27 +354,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
